--- a/25 jan/Book1.xlsx
+++ b/25 jan/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonuk\OneDrive\Desktop\ExcelInClass\25 jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460058D1-DD6E-4B7D-890C-DC4B6B7CF182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A38F944-A3C8-4F2F-B042-63750D21EAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{C66C0E57-1BC7-48F8-8D5A-243EA761F3AA}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
